--- a/pred_ohlcv/54_21/2020-01-14 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1572814.427499999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4432477.187499999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4432477.187499999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2980987.187499999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2341833.682629871</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1993378.682629871</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-240702.6398337674</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3590470.519833767</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2208124.494432004</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-18029355.97571038</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14995696.09571038</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-18182415.97571038</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-18178170.22891038</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20786307.91811038</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-18057127.03811038</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-25426086.77921038</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-25324039.31441039</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-24880824.12631039</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-24858949.86171039</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-24846984.27861039</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-24753338.62321039</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-24756323.32501039</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-24886822.70691039</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-24939996.15801039</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-25030674.94601039</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-25044072.56431039</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-24094446.69901039</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-25463751.60311038</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-28544011.60311038</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1572814.427499999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4432477.187499999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4432477.187499999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2980987.187499999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1140509.067499999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2341833.682629871</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1993378.682629871</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>200907.1973701287</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-240702.6398337674</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3590470.519833767</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2208124.494432004</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3922362.374432004</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7812022.664032004</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-8349623.113253629</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-8943356.978153629</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9068137.52045363</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-9445561.61675363</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9297236.883432005</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-9499636.019110378</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-9546779.018910378</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9547784.514610378</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-9554259.995510379</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-18029355.97571038</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14995696.09571038</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-18182415.97571038</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-18178170.22891038</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20786307.91811038</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-18057127.03811038</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-25324039.31441039</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-24858949.86171039</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-24846984.27861039</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-24753338.62321039</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-24756323.32501039</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-24886822.70691039</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-24886822.70691039</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-24939996.15801039</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-25030674.94601039</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-25044072.56431039</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-25367891.78681039</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-24094446.69901039</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-25463751.60311038</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-28544011.60311038</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
